--- a/Software/TW.xlsx
+++ b/Software/TW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3187127-4203-7C43-9F80-1E37907B10B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA223A0-57D1-6541-AFE9-F59CE56E8C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Market Cap</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Shares</t>
+  </si>
+  <si>
+    <t>Needs updating</t>
   </si>
 </sst>
 </file>
@@ -786,10 +789,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>136.13499999999999</v>
-    <v>80.95</v>
-    <v>1.0138</v>
-    <v>0.28999999999999998</v>
-    <v>2.1849999999999999E-3</v>
+    <v>86.06</v>
+    <v>0.99809999999999999</v>
+    <v>1.56</v>
+    <v>1.2159999999999999E-2</v>
+    <v>0.02</v>
+    <v>1.54E-4</v>
     <v>USD</v>
     <v>Tradeweb Markets Inc. is a global operator of electronic marketplaces for rates, credit, equities and money markets. The Company provides access to markets, data and analytics, electronic trading, straight-through-processing and reporting for more than 50 products to clients. It supports its clients by providing solutions across the trade lifecycle, including pre-trade, execution, post-trade and data. Its technology supports multiple asset classes, trading protocols and geographies. The Company provides deep liquidity pools to the institutional, wholesale and retail client sectors through its Tradeweb Institutional, Dealerweb and Tradeweb Direct platforms. It provides fully electronic, hybrid and voice trading for the wholesale community on its Dealerweb platform. Its network comprises clients across the institutional, wholesale, retail and corporate client sectors, including global asset managers, hedge funds, insurance companies, central banks, banks and dealers, and others.</v>
     <v>1179</v>
@@ -797,24 +802,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1177 Avenue of the Americas, NEW YORK, NY, 10036-2714 US</v>
-    <v>134.04</v>
+    <v>131.5</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45583.957183240622</v>
+    <v>45603.993507175779</v>
     <v>0</v>
-    <v>132.91999999999999</v>
-    <v>28367570000</v>
+    <v>129.06</v>
+    <v>27679085700</v>
     <v>TRADEWEB MARKETS INC.</v>
     <v>TRADEWEB MARKETS INC.</v>
-    <v>133.43</v>
-    <v>65.854900000000001</v>
-    <v>132.75</v>
-    <v>133.04</v>
-    <v>213225900</v>
+    <v>129.06</v>
+    <v>62.185099999999998</v>
+    <v>128.29</v>
+    <v>129.85</v>
+    <v>129.87</v>
+    <v>213162000</v>
     <v>TW</v>
     <v>TRADEWEB MARKETS INC. (XNAS:TW)</v>
-    <v>5</v>
-    <v>794325</v>
+    <v>753904</v>
+    <v>902362</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -846,6 +852,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -866,6 +874,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -882,7 +891,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -893,13 +902,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -965,13 +977,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1016,6 +1034,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1023,6 +1044,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -1404,7 +1428,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1437,14 +1461,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="45" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>133.04</v>
+        <v>129.85</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="49">
         <f ca="1">A5/F10</f>
-        <v>17.027352941176471</v>
+        <v>16.614097058823528</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -1458,7 +1482,7 @@
       </c>
       <c r="G3" s="53" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
-        <v>176528235.22811177</v>
+        <v>176475332.8638536</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -1470,7 +1494,9 @@
       <c r="J3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="L3" s="14"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1482,21 +1508,21 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="46" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.1849999999999999E-3</v>
+        <v>1.2159999999999999E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="49">
         <f ca="1">A5/F15</f>
-        <v>42.026029629629633</v>
+        <v>41.006052888888888</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="52">
-        <f>E17</f>
-        <v>0.27234678624813152</v>
+        <f>F17</f>
+        <v>0.40516206482593037</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>6</v>
@@ -1530,21 +1556,21 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>28367570000</v>
+        <v>27679085700</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="50">
         <f ca="1">F18/A5</f>
-        <v>1.9247330666673248E-2</v>
+        <v>1.9726085099696773E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="52">
-        <f>E20</f>
-        <v>0.36771300448430494</v>
+        <f>F20</f>
+        <v>0.32773109243697479</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>8</v>
@@ -1564,7 +1590,7 @@
       </c>
       <c r="K5" s="55">
         <f ca="1">I5/G3</f>
-        <v>60.460052497034333</v>
+        <v>60.47817672815696</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
@@ -1579,7 +1605,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.0138</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -1612,7 +1638,7 @@
       </c>
       <c r="K6" s="56">
         <f ca="1">K5/A3-1</f>
-        <v>-0.54554981586715023</v>
+        <v>-0.53424584729952285</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>13</v>
